--- a/exceltestdata/TC002.xlsx
+++ b/exceltestdata/TC002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74709F20-8D52-4F6A-B89C-DD43D79666C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2086357-652D-4997-9693-E0295505E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,13 +33,13 @@
     <t>Salesforce Automation by KSK</t>
   </si>
   <si>
-    <t>KSK</t>
-  </si>
-  <si>
     <t>Salesforce Automation by  Sankarakarthikeyan</t>
   </si>
   <si>
-    <t>Sankarakarthikeyan</t>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>Perception Analysis</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -381,12 +381,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>

--- a/exceltestdata/TC002.xlsx
+++ b/exceltestdata/TC002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2086357-652D-4997-9693-E0295505E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967F9E40-5276-45F3-9E7A-8642288626F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/exceltestdata/TC002.xlsx
+++ b/exceltestdata/TC002.xlsx
@@ -8,48 +8,91 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967F9E40-5276-45F3-9E7A-8642288626F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB796D18-0DB7-4967-946B-9C2E3F5CEF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>AccountTitle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Salesforce Automation by KSK</t>
   </si>
   <si>
-    <t>Salesforce Automation by  Sankarakarthikeyan</t>
-  </si>
-  <si>
-    <t>VerifyText</t>
-  </si>
-  <si>
     <t>Perception Analysis</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>hari.radhakrishnan@qeagle.com</t>
+  </si>
+  <si>
+    <t>India$321</t>
+  </si>
+  <si>
+    <t>verifySnackBar</t>
+  </si>
+  <si>
+    <t>vertifyStageText</t>
+  </si>
+  <si>
+    <t>EnterOpportunity</t>
+  </si>
+  <si>
+    <t>EnterDescription</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Salesforce Automation by Sankarakarthikeyan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +115,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,42 +405,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="3" max="4" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>"Opportunity """&amp;C2&amp;""" was saved."</f>
+        <v>Opportunity "Salesforce Automation by KSK" was saved.</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>"Opportunity """&amp;C3&amp;""" was saved."</f>
+        <v>Opportunity "Salesforce Automation by Sankarakarthikeyan" was saved.</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{D2FFE4E0-42D5-4B6C-8D78-DB770608A674}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{1A30870E-4438-4AAA-B6A0-7BA6D55D2FCC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/exceltestdata/TC002.xlsx
+++ b/exceltestdata/TC002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB796D18-0DB7-4967-946B-9C2E3F5CEF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33C8A9-C6E7-4BA5-B628-E4E4C90CAF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Salesforce Automation by KSK</t>
   </si>
@@ -50,9 +50,6 @@
     <t>hari.radhakrishnan@qeagle.com</t>
   </si>
   <si>
-    <t>India$321</t>
-  </si>
-  <si>
     <t>verifySnackBar</t>
   </si>
   <si>
@@ -69,6 +66,15 @@
   </si>
   <si>
     <t>Salesforce Automation by Sankarakarthikeyan</t>
+  </si>
+  <si>
+    <t>India$4321</t>
+  </si>
+  <si>
+    <t>Opportunity "Salesforce Automation by KSK" was saved.</t>
+  </si>
+  <si>
+    <t>Opportunity "Salesforce Automation by Sankarakarthikeyan" was saved.</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,16 +431,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -442,17 +448,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f>"Opportunity """&amp;C2&amp;""" was saved."</f>
-        <v>Opportunity "Salesforce Automation by KSK" was saved.</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -463,17 +468,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>"Opportunity """&amp;C3&amp;""" was saved."</f>
-        <v>Opportunity "Salesforce Automation by Sankarakarthikeyan" was saved.</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>

--- a/exceltestdata/TC002.xlsx
+++ b/exceltestdata/TC002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33C8A9-C6E7-4BA5-B628-E4E4C90CAF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A8F95-7FA5-4221-9972-D0BE0715E7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exceltestdata/TC002.xlsx
+++ b/exceltestdata/TC002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A8F95-7FA5-4221-9972-D0BE0715E7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52387FF1-C5EB-4F72-B96A-A75212385B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,17 +71,17 @@
     <t>India$4321</t>
   </si>
   <si>
-    <t>Opportunity "Salesforce Automation by KSK" was saved.</t>
-  </si>
-  <si>
-    <t>Opportunity "Salesforce Automation by Sankarakarthikeyan" was saved.</t>
+    <t>Opportunity "Salesforce Automation by KSK" was saved.</t>
+  </si>
+  <si>
+    <t>Opportunity "Salesforce Automation by Sankarakarthikeyan" was saved.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,12 +93,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,11 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,14 +406,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="47.5703125" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -456,7 +450,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">

--- a/exceltestdata/TC002.xlsx
+++ b/exceltestdata/TC002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52387FF1-C5EB-4F72-B96A-A75212385B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A20125-381C-4B55-BA34-46787B63CE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,13 +68,13 @@
     <t>Salesforce Automation by Sankarakarthikeyan</t>
   </si>
   <si>
-    <t>India$4321</t>
-  </si>
-  <si>
     <t>Opportunity "Salesforce Automation by KSK" was saved.</t>
   </si>
   <si>
     <t>Opportunity "Salesforce Automation by Sankarakarthikeyan" was saved.</t>
+  </si>
+  <si>
+    <t>Testleaf$321</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -471,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
